--- a/flightsimdiscovery/output/poi_database.xlsx
+++ b/flightsimdiscovery/output/poi_database.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11159,7 +11159,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -11862,7 +11862,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -12676,7 +12676,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -13490,7 +13490,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -14082,7 +14082,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -15488,7 +15488,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -15636,7 +15636,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -17042,7 +17042,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -17745,7 +17745,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -17782,7 +17782,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -18115,7 +18115,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -18189,7 +18189,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -18485,7 +18485,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -18670,7 +18670,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -19077,7 +19077,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -19188,7 +19188,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -19854,7 +19854,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -20002,7 +20002,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -20076,7 +20076,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -20150,7 +20150,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -20224,7 +20224,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -20335,7 +20335,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -20779,7 +20779,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -20890,7 +20890,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -21260,7 +21260,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -22185,7 +22185,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -24146,7 +24146,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -24331,7 +24331,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -24405,7 +24405,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -24627,7 +24627,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -25885,7 +25885,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -25996,7 +25996,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -27439,7 +27439,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -27550,7 +27550,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -27994,7 +27994,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -28068,7 +28068,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -28105,7 +28105,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -28142,7 +28142,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Historical Landmark</t>
+          <t>Landmark: Historical</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -28956,7 +28956,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Man Made Landmarks</t>
+          <t>Landmark: Man-Made</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -28993,7 +28993,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Man Made Landmarks</t>
+          <t>Landmark: Man-Made</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -29400,7 +29400,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -29548,7 +29548,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -30473,7 +30473,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -30584,7 +30584,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -30991,7 +30991,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -31472,7 +31472,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>Geological Landmark (other)</t>
+          <t>Landmark: Geological (Other)</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
